--- a/data/trans_dic/P1428-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1428-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04444277182078467</v>
+        <v>0.04588919312007094</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04251845311427955</v>
+        <v>0.04195850532380751</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03066905197516474</v>
+        <v>0.03062989490637124</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04064986164052618</v>
+        <v>0.04130091119657094</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1624322211451007</v>
+        <v>0.1612895063417844</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1122952994975655</v>
+        <v>0.1119581214102773</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09714469866037626</v>
+        <v>0.09616613550084538</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1624609167476063</v>
+        <v>0.1634780267130645</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1100659914163382</v>
+        <v>0.1084626125628524</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08205294842476543</v>
+        <v>0.08301623894488888</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0681049163604777</v>
+        <v>0.06913954959411089</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1078489461429875</v>
+        <v>0.1067457857761395</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08094047317233459</v>
+        <v>0.08058131588419858</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07979186275440318</v>
+        <v>0.0811198760170192</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06235424339678929</v>
+        <v>0.06260015130912237</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0711333156926349</v>
+        <v>0.07374682407405894</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2217931483192079</v>
+        <v>0.2175885031806505</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1640743519390478</v>
+        <v>0.1681021620577877</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1484077490852799</v>
+        <v>0.1502777065513317</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2056514027548426</v>
+        <v>0.2059270646551497</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.144542623510926</v>
+        <v>0.1432328390233225</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1158401806885768</v>
+        <v>0.1147380632600014</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09733787893508572</v>
+        <v>0.09979543828896086</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1354159583969983</v>
+        <v>0.1353239730907003</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.03385322661829487</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04516478320315234</v>
+        <v>0.04516478320315233</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1717367695264441</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05934012923044889</v>
+        <v>0.05957009543539099</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04740963885510753</v>
+        <v>0.04951863732598814</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02445169013800621</v>
+        <v>0.02503446908127973</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03444366155539072</v>
+        <v>0.03394263540971262</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1488802770841651</v>
+        <v>0.1489024445968875</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1035239088519366</v>
+        <v>0.1036163290014149</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08793981747857585</v>
+        <v>0.08781402959254568</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1177273798460709</v>
+        <v>0.1188839428334558</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1096317372067131</v>
+        <v>0.108540709451914</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08110421743064103</v>
+        <v>0.07983026266191641</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05841009526416231</v>
+        <v>0.0598982398709962</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07990517751153278</v>
+        <v>0.07999607429698816</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09626208959343187</v>
+        <v>0.09210099540673626</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08098280469403783</v>
+        <v>0.07920960793777387</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04778755863273636</v>
+        <v>0.04723912753529969</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05726383328916391</v>
+        <v>0.05865285691758796</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2005862732085707</v>
+        <v>0.1976399615775801</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1469388465317193</v>
+        <v>0.1465307939475398</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1283519753042937</v>
+        <v>0.1299004951451484</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1506209782467696</v>
+        <v>0.1532103426290215</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1407666608387336</v>
+        <v>0.1402488820143326</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1075054373170353</v>
+        <v>0.1070070405774493</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08209592372159924</v>
+        <v>0.08331338027024771</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1005900863956934</v>
+        <v>0.09991892497679995</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.05729081129115712</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07957182779116721</v>
+        <v>0.07957182779116724</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05341015458013098</v>
+        <v>0.05218585891671307</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0232758043248994</v>
+        <v>0.0226265760569006</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02621997303313344</v>
+        <v>0.02616200429036047</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03679503409910136</v>
+        <v>0.03780549506430571</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1515904165695</v>
+        <v>0.1502947480057727</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08723092149210479</v>
+        <v>0.0877300906744972</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05850747419023285</v>
+        <v>0.05775056990455094</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09081437658523739</v>
+        <v>0.09196076154345337</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1078953835328557</v>
+        <v>0.1083218393133619</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06032357688342602</v>
+        <v>0.05973364103535726</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04520527387339934</v>
+        <v>0.04611989548758295</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06976296410132496</v>
+        <v>0.06700628324795183</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.093874393441961</v>
+        <v>0.09232383500182594</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05227439199361363</v>
+        <v>0.05432319308466756</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05527882376336365</v>
+        <v>0.05551548440109196</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06613412392249003</v>
+        <v>0.06724941915225828</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2119648401414374</v>
+        <v>0.2078414098870406</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1360884417131207</v>
+        <v>0.135094444516178</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.09622168534022082</v>
+        <v>0.09712953445329743</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1259759155046525</v>
+        <v>0.1263552378107673</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1434396727508657</v>
+        <v>0.1443643523083264</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08832364085975414</v>
+        <v>0.0879828497256368</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07116099887145401</v>
+        <v>0.07061592178400111</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09128350729784086</v>
+        <v>0.0919850232660247</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06188651175166576</v>
+        <v>0.06268249105117128</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03282752734596307</v>
+        <v>0.03374100616156241</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02023181886500961</v>
+        <v>0.01996970375020161</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0471152279122473</v>
+        <v>0.04759471883479154</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1485008040146621</v>
+        <v>0.1476427439690809</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1079452106046117</v>
+        <v>0.106621861934232</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05969164070686055</v>
+        <v>0.05964153973415613</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1371263352671171</v>
+        <v>0.1369111852698786</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1111077608117992</v>
+        <v>0.1105318431640631</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07646333551621637</v>
+        <v>0.07622703275030281</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04444814034136617</v>
+        <v>0.0446443922910599</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0981353947775979</v>
+        <v>0.09779846096224296</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09469779081708743</v>
+        <v>0.0957678934848543</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06245030552010714</v>
+        <v>0.06424712011134284</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04506950145682501</v>
+        <v>0.0449562073855416</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0739403156047585</v>
+        <v>0.07455158473480228</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1947895930232556</v>
+        <v>0.195283584074781</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1510388737206643</v>
+        <v>0.1489200792154081</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09636830289654555</v>
+        <v>0.09603215092973656</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1721147420962561</v>
+        <v>0.171087811278846</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1414723706665544</v>
+        <v>0.1413871743031912</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1028605082666501</v>
+        <v>0.1017901120772255</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06561939719233909</v>
+        <v>0.06583480099357976</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1212536161161565</v>
+        <v>0.1207955479860287</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.09368856557978152</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1438200611620118</v>
+        <v>0.1438200611620119</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1251718002122634</v>
@@ -1241,7 +1241,7 @@
         <v>0.0654323239974996</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.09939310332200819</v>
+        <v>0.09939310332200822</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06406954489756009</v>
+        <v>0.06413061285923058</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04487705761826451</v>
+        <v>0.04449598293492777</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02986940890457046</v>
+        <v>0.02993002666703197</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04558287234937346</v>
+        <v>0.04643145361170254</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1628775106410049</v>
+        <v>0.1633761469108818</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1132741397368291</v>
+        <v>0.1129019157854907</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0833759393405461</v>
+        <v>0.08339831635429354</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1349359390395074</v>
+        <v>0.1359005572384633</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1171632283447291</v>
+        <v>0.1178405539583509</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.08166660035326381</v>
+        <v>0.08096680374312565</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05957044010146354</v>
+        <v>0.05943313376989615</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.09357717831148313</v>
+        <v>0.09388245331345849</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08165505232821464</v>
+        <v>0.08176167258760013</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06001787289483951</v>
+        <v>0.06050222761378406</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0427852814039725</v>
+        <v>0.04314023014249393</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05991011374101578</v>
+        <v>0.06023141494921708</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1900033468796852</v>
+        <v>0.1892079933498254</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1356644943123643</v>
+        <v>0.1358439432947194</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1044377925977129</v>
+        <v>0.103953816694014</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1528594655681188</v>
+        <v>0.1544323734455302</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1326341441417195</v>
+        <v>0.1332283780522775</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09581043492241495</v>
+        <v>0.09561979899922025</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07193415597012597</v>
+        <v>0.07189207717087452</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1051403342809832</v>
+        <v>0.1054743669754317</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>30844</v>
+        <v>31848</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>29910</v>
+        <v>29517</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>20695</v>
+        <v>20669</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>28034</v>
+        <v>28483</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>111810</v>
+        <v>111024</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>78275</v>
+        <v>78040</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>65363</v>
+        <v>64704</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>118843</v>
+        <v>119587</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>152151</v>
+        <v>149935</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>114917</v>
+        <v>116266</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>91781</v>
+        <v>93175</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>153272</v>
+        <v>151704</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>56174</v>
+        <v>55924</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>56131</v>
+        <v>57065</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>42077</v>
+        <v>42243</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>49057</v>
+        <v>50860</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>152672</v>
+        <v>149777</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>114368</v>
+        <v>117176</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>99855</v>
+        <v>101113</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>150438</v>
+        <v>150639</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>199810</v>
+        <v>198000</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>162236</v>
+        <v>160693</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>131176</v>
+        <v>134488</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>192449</v>
+        <v>192319</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>57073</v>
+        <v>57295</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>48260</v>
+        <v>50407</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>25000</v>
+        <v>25596</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>36049</v>
+        <v>35524</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>144175</v>
+        <v>144196</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>106523</v>
+        <v>106618</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>91714</v>
+        <v>91582</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>125269</v>
+        <v>126500</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>211610</v>
+        <v>209505</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>166014</v>
+        <v>163406</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>120637</v>
+        <v>123710</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>168653</v>
+        <v>168845</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>92585</v>
+        <v>88583</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>82436</v>
+        <v>80631</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>48859</v>
+        <v>48299</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>59932</v>
+        <v>61386</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>194246</v>
+        <v>191393</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>151196</v>
+        <v>150776</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>133860</v>
+        <v>135475</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>160270</v>
+        <v>163025</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>271707</v>
+        <v>270707</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>220055</v>
+        <v>219035</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>169556</v>
+        <v>172071</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>212312</v>
+        <v>210895</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>36239</v>
+        <v>35409</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17634</v>
+        <v>17142</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>19915</v>
+        <v>19871</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>29481</v>
+        <v>30290</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>103664</v>
+        <v>102778</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>67794</v>
+        <v>68182</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>45929</v>
+        <v>45335</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>73156</v>
+        <v>74079</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>146991</v>
+        <v>147572</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>92584</v>
+        <v>91679</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>69822</v>
+        <v>71235</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>112093</v>
+        <v>107664</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>63695</v>
+        <v>62643</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>39604</v>
+        <v>41157</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>41987</v>
+        <v>42167</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>52988</v>
+        <v>53881</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>144950</v>
+        <v>142130</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>105764</v>
+        <v>104992</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>75535</v>
+        <v>76248</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>101480</v>
+        <v>101786</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>195415</v>
+        <v>196675</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>135559</v>
+        <v>135036</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>109913</v>
+        <v>109071</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>146672</v>
+        <v>147799</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>58311</v>
+        <v>59061</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>31112</v>
+        <v>31978</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>18969</v>
+        <v>18723</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>46499</v>
+        <v>46972</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>154235</v>
+        <v>153344</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>113548</v>
+        <v>112156</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>62305</v>
+        <v>62253</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>153195</v>
+        <v>152954</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>220086</v>
+        <v>218945</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>152899</v>
+        <v>152427</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>88067</v>
+        <v>88456</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>206486</v>
+        <v>205777</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>89226</v>
+        <v>90235</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>59187</v>
+        <v>60890</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>42256</v>
+        <v>42149</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>72973</v>
+        <v>73576</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>202311</v>
+        <v>202824</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>158878</v>
+        <v>156649</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>100587</v>
+        <v>100236</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>192283</v>
+        <v>191136</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>280233</v>
+        <v>280065</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>205684</v>
+        <v>203544</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>130015</v>
+        <v>130442</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>255129</v>
+        <v>254165</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>209927</v>
+        <v>210127</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>153784</v>
+        <v>152478</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>101387</v>
+        <v>101593</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>160652</v>
+        <v>163643</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>550395</v>
+        <v>552080</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>402701</v>
+        <v>401377</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>295530</v>
+        <v>295609</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>501734</v>
+        <v>505320</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>779808</v>
+        <v>784316</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>570186</v>
+        <v>565300</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>413353</v>
+        <v>412400</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>677751</v>
+        <v>679962</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>267546</v>
+        <v>267896</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>205668</v>
+        <v>207328</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>145228</v>
+        <v>146433</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>211147</v>
+        <v>212279</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>642059</v>
+        <v>639371</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>482301</v>
+        <v>482939</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>370184</v>
+        <v>368469</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>568379</v>
+        <v>574227</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>882779</v>
+        <v>886734</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>668937</v>
+        <v>667606</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>499143</v>
+        <v>498851</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>761500</v>
+        <v>763919</v>
       </c>
     </row>
     <row r="24">
